--- a/Lista_de_Emails_SP.xlsx
+++ b/Lista_de_Emails_SP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,72 +448,3516 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIO PATARRA FRATTINI PROF</t>
+          <t>ANCHIETA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>e017140a@educacao.sp.gov.br</t>
+          <t>e921130a@educacao.sp.gov.br</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JOAO SOLIDARIO PEDROSO PROF</t>
+          <t>ANGELA SUELI PONTES DIAS PROFESSORA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>e017322a@educacao.sp.gov.br</t>
+          <t>e922109a@educacao.sp.gov.br</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JOSE BONIFACIO DO COUTO</t>
+          <t>LUZIA BARUQUE KIRCHE PROFA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>e033376a@educacao.sp.gov.br</t>
+          <t>e922961a@educacao.sp.gov.br</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PROFESSORA ORNELLA RITA FERRARI SACILOTTO</t>
+          <t>JAIR TOLEDO XAVIER PROFESSOR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>e578587a@educacao.sp.gov.br</t>
+          <t>e923254a@educacao.sp.gov.br</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NIOMAR APPARECIDA MATTOS GOBBO AMARAL GURGEL PROFA</t>
+          <t>ANTONIO LUCAS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>e903772a@educacao.sp.gov.br</t>
+          <t>e923369a@educacao.sp.gov.br</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>MIGUEL HIDALGO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>e923515a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LUCIANE DO ESPIRITO SANTO PROFA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>e923527a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HEIDI ALVES LAZZARINI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>e923564a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LUIZ SERGIO CLAUDINO DOS SANTOS DEPUTADO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>e923606a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CLARICE SEIKO IKEDA CHAGAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>e923679a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CELIA RIBEIRO LANDIM PROFA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>e923795a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PARQUE PIRATININGA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>e923941a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TOMIE OHTAKE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>e924052a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PORTAL DA JUREIA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>e924301a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JARDIM SILVIA II</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>e924532a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PEDRO CELESTINO TONOLLI PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>e924660a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MARINALVA GIMENES COLOSSAL DA CUNHA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>e924672a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>REPUBLICA ARGENTINA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>e924763a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LEDA FELICE FERREIRA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>e925603a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PAULO DE CASTRO FERREIRA JUNIOR JORNALISTA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>e925615a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ANIGER FRANCISCO DE MARIA MELILLO DOM</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>e925792a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EDERA IRENE PEREIRA DE OLIVEIRA CARDOSO PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>e925925a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AMARAL WAGNER</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>e985193a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RODRIGUES ALVES</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>e012661a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GAVIAO PEIXOTO BRIGADEIRO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>e000024a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MANUEL DA NOBREGA PADRE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>e000334a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PAUL HUGON PROF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>e000735a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EXPEDICIONARIO BRASILEIRO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>e001120a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PEDRO ALEXANDRINO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>e001132a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>JULIO PESTANA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>e001144a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WOLNY CARVALHO RAMOS PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>e001624a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>VICTOR MIGUEL ROMANO PROF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>e001727a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAROLINA AUGUSTA DA COSTA GALVAO PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>e001909a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BLANCA ZWICKER SIMOES PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>e002082a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MARIA AUGUSTA DE AVILA PROFA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>e002616a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ANNITA GUASTINI EIRAS PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>e002720a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MARIA DA CONCEICAO OLIVEIRA COSTA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>e003219a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FIDELINO DE FIGUEIREDO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>e003670a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MARIA JOSE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>e003759a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>VICTOR OLIVA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>e003803a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BRASILIO MACHADO</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>e003876a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DANIEL PAULO VERANO PONTES PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>e004091a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ALBERTO LEVY PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>e004145a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RAUL FONSECA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>e004546a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LEONOR QUADROS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>e004868a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BEATRIZ DE QUADROS LEME PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>e005009a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>e005113a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>JOAO DE DEUS CARDOSO DE MELLO</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>e005253a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ALBERTO SALOTTI PROF EE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>e005289a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JOSE VIEIRA DE MORAES PROF</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>e005368a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ISAIAS LUIZ MATIAZZO</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>e005587a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AZEVEDO SOARES</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>e005666a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HERMELINA DE ALBUQUERQUE PASSARELLA PROFA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>e005685a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GENOEFA D AQUINO PACITTI PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>e006087a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PAULO ROLIM LOUREIRO DOM</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>e006117a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTUNES FILHO</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>e006166a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ANTONIO VIANA DE SOUZA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>e006373a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>WASHINGTON LUIZ PEREIRA DE SOUZA DR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>e006385a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GABRIELA FREIRE LOBO PROFA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>e006567a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LEONOR DE OLIVEIRA MELLO</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>e006658a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>OLGA CHAKUR FARAH PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>e006737a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BENEDITO DE SOUZA LIMA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>e006841a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AMERICO SUGAI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>e006889a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MARILENE DE OLIVEIRA ACETTO PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>e007648a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTONINO PREFEITO</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>e007651a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CASEMIRO DA ROCHA DR</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>e007870a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LUIZ MARTINI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>e008138a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JOSE CARLOS ANTUNES PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>e008187a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LOUIS JOSEPH LEBRET PADRE</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>e008412a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>JOAQUIM DA FONSECA SARAIVA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>e008618a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>OSCAVO DE PAULA E SILVA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>e008655a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>OMAR DONATO BASSANI</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>e008771a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LAUDO FERREIRA DE CAMARGO MINISTRO</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>e008825a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ANTONIO CAPUTO</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>e008990a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CAIO PRADO JUNIOR DEPUTADO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>e009799a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MARIANINHA QUEIROZ PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>e010017a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MARIA ANTONIETA MARTINS DE ALMEIDA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>e010054a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ANTONIO INACIO MACIEL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>e010259a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VINICIUS DE MORAES</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>e010492a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FERNANDO NOBRE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>e010509a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FRANCISCO CASABONA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>e011113a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>JOSE CELESTINO ARANHA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>e011150a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MARIA THEREZA DA CUNHA PEDROSO PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>e012129a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LAUDELINO FERNANDES DOS SANTOS PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>e012221a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AMERICO ALVES</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>e012609a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MURILLO DO AMARAL PROF</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>e012816a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ROGERIO LACAZ PROF</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>e012919a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MARIA IZABEL FONTOURA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>e013055a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ARNOLFO AZEVEDO</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>e013109a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ARMANDO D OLIVEIRA COBRA</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>e013730a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DIOGENES RIBEIRO DE LIMA</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>e014312a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ANTONIA BAPTISTA CALAZANS LUZ PROFA</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>e014370a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>AMBROSINA DE OLIVEIRA MATTOS PROFA</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>e014424a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ERNESTA XAVIER RABELO ORSI PROFA</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>e015209a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ARY DE ALMEIDA SINISGALLI PROF</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>e016676a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ANDRE RODRIGUES DE ALKIMIN PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>e017097a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MARIO PATARRA FRATTINI PROF</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>e017140a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>JOAO FRANCESCHINI</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>e017267a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>JOAO SOLIDARIO PEDROSO PROF</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>e017322a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PEDRO DE TOLEDO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>e017437a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NARCISO PIERONI</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>e017735a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>JOSE FRANCO CRAVEIRO</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>e017759a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>FRANCISCO DE ASSIS GONCALVES CORONEL</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>e017985a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>JOAO LOURENCO RODRIGUES PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>e018235a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ANIBAL DE FREITAS PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>e018314a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>EMILIO JOSE SALIM MONSENHOR DOUTOR</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>e018740a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>JERONIMO DE CAMARGO</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>e019860a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>LAZARO DUARTE DO PATEO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>e020114a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTONIO GONCALVES</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>e020321a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ERNANI CALBUCCI PROF</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>e020618a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ALCIDES GUIDETTI ZAGATTO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>e020761a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MARIA JANUARIA VAZ TUCCORI PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>e020795a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>FRANCO CORONEL</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>e021465a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>RAUL FERNANDES CHANCELER</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>e021748a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ANTONIA EUGENIA MARTINS PROFA</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>e021885a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>FLORESTANO LIBUTTI</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>e021969a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DALVA LELLIS GARCIA PRADO PROFA</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>e022421a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CAETANO PETRAGLIA</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>e022779a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>JOSE RIBEIRO DE BARROS PROF</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>e023140a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>GLETE DE ALCANTARA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>e023899a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>JOAO AUGUSTO DE MELLO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>e023954a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>GETULIO LIMA CAPITAO</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>e024648a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>HENRIQUE MORATO PROF</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>e024946a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>FRAGA MAJOR</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>e025161a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>EDUARDO VELHO FILHO PROF</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>e025240a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>DOMINGOS DE MAGALHAES DOUTOR</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>e025835a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>FRANCISCO MOLINA MOLINA ESCOLA ESTADUAL</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>e027133a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>APARECIDO EUZEBIO TORRES PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>e027315a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ANTONIO MARIN</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>e027777a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>FRANCISCO BERNARDES FERREIRA COMENDADOR</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>e028113a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CARLOS CASTILHO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>e028241a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ORESTES FERREIRA DE TOLEDO</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>e028344a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ALBERTO ANDALO</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>e028538a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>VICTOR BRITTO BASTOS PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>e028733a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NOEMIA DIAS PEROTTI DONA</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>e029336a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>LUIZ GAMA</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>e029713a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NILCE MAIA SOUTO MELO PROFA</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>e029762a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PURCINA ELISA DE ALMEIDA PROFA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>e029877a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>VANIOLE DIONYSIO MARQUES PAVAN PROFA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>e030016a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>AGOSTINHO GRIGOLETO</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>e030107a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>JULIETA GUEDES MENDONCA PROFA</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>e031252a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ISAC PEREIRA GARCEZ ENG</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>e031276a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SALVADOR RAMOS DE MOURA PROF</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>e031461a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>LEA APARECIDA VIEIRA GUEDES</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>e031513a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CELESTINA DE CAMPOS TOLEDO TEIXEIRA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>e031884a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MARIETTA FERRAZ DE ASSUMPCAO PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>e032001a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ANTONIO JOSE DOS SANTOS DOM</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>e032530a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>HEMILSON CARLOS MAGRINI PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>e032815a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MARIA MAGDALENA DE OLIVEIRA DONA COTA</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>e033133a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ERNANI RODRIGUES PROF</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>e033273a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO DE OLIVEIRA PROF</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>e033285a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>JOSE BONIFACIO DO COUTO</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>e033376a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NELSON CABRINI PROF</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>e033698a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ERNESTO FONSECA DOUTOR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>e033893a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TSUYA OHNO KIMURA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>e034666a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ANTONIO FERNANDES PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>e035075a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PLACIDO DE PAULA E SILVA</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>e035142a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>REPUBLICA DE CUBA</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>e035440a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>HELIO MOTTA DOUTOR</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>e035634a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DEOLINDA COPELLI DE SOUZA LIMA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>e035993a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>JOAQUIM SIMAO</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>e036146a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>MARIA IGNES ARAUJO PAULA SANTOS PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>e036161a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BRANCA CASTRO CANTO E MELO PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>e036973a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>GERALDO CORREIA DE CARVALHO DOUTOR</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>e037151a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>MARTA TERESINHA ROSA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>e037321a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>CARLOS KOCH DOUTOR</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>e037552a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ALVARO DE SOUZA LIMA DOUTOR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>e037618a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ITALO BETARELLO</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>e038097a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>MIGUEL ROQUE PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>e038209a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ALBERTO BACAN PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>e038374@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SALOMAO JORGE DEPUTADO</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>e038544a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO DO NASCIMENTO PROF</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>e038878a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>GASTAO STRANG PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>e039100a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>AYRES NETO DOUTOR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>e039287a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>IBRAHIM NOBRE</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>e039299a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MELVIN JONES</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>e039378a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BENEDITA FREIRE DE MACEDO DONA</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>e039597a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>LIOMAR FREITAS CAMARA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>e039858a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>DOMINGOS MIGNONI</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>e040769a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>JAMIL GADIA DEPUTADO</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>e040873a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>LUIS MAGALHAES DE ARAUJO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>e041063a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NARCISO YAGUE GUIMARAES VEREADOR</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>e041130a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BASILIO BOSNIAC</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>e041348a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SANTA DALMOLIN DEMARCHI</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>e042031a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>JOAO DOMINGOS MADEIRA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>e043552a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>AZARIAS LEITE</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>e043597a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ESTANCIA PARAISO</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>e043825a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>AMACIO MAZZAROPI</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>e043916a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ENNY TEREZA LONGO FRACARO PROFA</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>e044167a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>MARIO ARMINANTE PROF</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>e044453a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ANTONIO FLORENTINO</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>e044854a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MARIO JOAQUIM ESCOBAR DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>e044933a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>CARMEN NETTO DOS SANTOS PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>e045007a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DIVA GOMES DOS SANTOS PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>e045073a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MARIA ROSA CAROLINO DOS SANTOS PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>e045597a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>REPUBLICA DOMINICANA</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>e046401a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>MARIA ALICE ALVES PEREIRA</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>e046747a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>EDUARDO BARNABE DEPUTADO</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>e047156a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>VALENTINA SILVA DE OLIVEIRA FIGUEIREDO DONA</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>e047168a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ALMERINDA RODRIGUES PROFA</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>e047348a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>OCTACILIO DE OLIVEIRA PADRE</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>e047557a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>MOABE CURY</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>e047934a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>MANASSES EPHRAIN PEREIRA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>e048331a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>FREDERICO MARIANO</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>e048707a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>VALDERICE THEREZINHA DA MOTTA CAMPOS MARCHINI PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>e048859a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>MANOEL AUGUSTO VIEIRA NETO DESEMBARGADOR</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>e049013a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ALICE ANTENOR DE SOUZA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>e049414a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DELCIO BACCARO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>e049967a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>LEONEL BRIZOLA</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>e050386a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES BORDINI PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>e065785a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ANTONIO LUIZ DE MORAES PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>e070269a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>SANDRA RODRIGUES DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>e079881a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ELCIO ANTONIO SELMI PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>e127784a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>CENTRO DE ATEND SOCIOEDUC AO ADOLESCENTE DE ARUJA CI</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>e03698a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>JARDIM CAPELA IV</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>e191224a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CENTRO ATEND SOCIOEDUC AO ADOLESCENTE ARACATUBACI</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>e029877a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CENTRO ATEND SOCIOEDUC AO ADOLESC DE FRANCA CI</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>e065997a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>DARIO GIOMETTI PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>e407215a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>JARDIM FORTALEZA II</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>e411292a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ALDEIA TEKOA MIRIM</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>e469798a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>URIAS BRAGA COSTA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>e479342a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>NAERSON MIRANDA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>e495311a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>PROFESSORA MARIA ELOIZA PINHEIRO RAMOS</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>e499043a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>JARDIM SANTA TEREZINHA</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>e561009a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ORACY MATRICARDI PROF</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>e565039a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL BORDON</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>e576670a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>PROFESSORA ORNELLA RITA FERRARI SACILOTTO</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>e578587a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ALVARO FRAGA MOREIRA</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>e900023a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>DOMINGOS BAUER LEITE POETA</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>e900035a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>EUNICE MARQUES MOURA BASTOS PROFA</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>e900060a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>IZABEL FERREIRA DOS SANTOS PROFESSORA DONA BELINHA</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>e900114a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BENERALDO DE TOLEDO PIZA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>e900175a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>DURVAL GUEDES DE AZEVEDO PROF</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>e900229a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>JOAO JORGE MARMORATO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>e900795a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>NOEMIA GARCIA CICILIATO PROFA</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>e900874a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>PAULO CHAVES PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>e901261a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ALBINO LUIZ CALDAS PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>e901404a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ELISEU JORGE PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>e901912a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MARIA OLIMPIA DE SOUZA QUEIROZ MACIEL</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>e902159a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ARTHUR CHAGAS JUNIOR PROF</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>e902809a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>PEDRO BRASIL BANDECCHI PROF</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>e902871a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ORESTES ORIS DE ALBUQUERQUE PROF</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>e903197a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>IDA YOLANDA LANZONI DE BARROS PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>e903255a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>LEA ROSA MELO ANDREGHETTI PROFA</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>e903632a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>BENITO MARTINELLI PROF</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>e903693a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>NIOMAR APPARECIDA MATTOS GOBBO AMARAL GURGEL PROFA</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>e903772a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>MARIO FRANCISCO DE AMORIM</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>e904181a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>JOAO ORTIZ RODRIGUES</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>e904193a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>WASHINGTON ALVES NATEL</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>e904594a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>FERNANDO BUONADUCE PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>e904740a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ERNESTO CAETANO DE SOUZA TENENTE</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>e904843a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>JOSE BALTAZAR DE SOUZA</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>e905288a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>JOSE GILBERTO DE OLIVEIRA SOUZA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>e905665a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>SOPHIA MARIA JANUARIA AMARAL</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>e906517a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>JORGE FERREIRA</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>e906621a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>JARDIM ARCO IRIS</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>e906633a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>EDSON LUIZ RIBEIRO LUZIA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>e906955a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>SERGIO DA SILVA NOBREZA PROF</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>e907112a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>MIGUEL MALUHY COMENDADOR</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>e907637a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>LACY BONILHA DE SOUZA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>e907741a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ANDRE DONATONI</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>e907820a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ALEXANDRINA SANTIAGO NETTO</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>e907972a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>MARIA IMACULADA CERQUEIRA BORHER PROFA</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e908290a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>WANDA MASCAGNI DE SA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e908459a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>DOLORES GARCIA PASCHOALIN</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>e908563a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>GILBERTO FREYRE</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>e908708a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>LIBERATO GROSSI PROF</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>e908939a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>LOURENCO ZANELATTI</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>e909051a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>SATURNINO PEREIRA PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>e909185a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ELZA PECANHA DE GODOY</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>e909373a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>MARIA DE ALMEIDA SCHLEDORN PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>e909506a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>LUCIANO ARMENTANO</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>e909762a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>RIOLANDO CANNO PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>e910223a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>WALDEMAR RODRIGUES DA SILVA PASTOR</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>e910338a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>AMADOR AGUIAR</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>e910485a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>CONCEICAO DA COSTA NEVES DEPUTADA</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>e910582a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>LUIZA MARIA BERNARDES NORY PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>e913868a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>ANNA CALVO DE GODOY PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>e913996a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>MARGARIDA MAIA DE ALMEIDA VIEIRA PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>e914459a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>OCTAVIO MARCONDES FERRAZ ENGENHEIRO</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>e914678a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>LUIZ MARCARI</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>e915002a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>HUGO PENTEADO TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>e915592a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>JACQUES ORLANDO CAMINHA D AVILA REVERENDO</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>e915725a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
           <t>VICTOR CIVITA</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>e915737a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ALTIMIRA PINKE PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>e916024a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ROGER JULES DE CARVALHO MANGE</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>e916535a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ASA BRANCA DA SERRA</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>e918659a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>JARDIM CAMPESTRE</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>e918830a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MAIA FROTA PROFA</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>e919147a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>SEBASTIAO FRANCISCO FERRAZ DE ARRUDA PROF</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>e919470a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ZILAH FERREIRA VIAGI PASSARELLI DE CAMPOS PROFESSORA</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>e919724a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>MARTA APARECIDA HJERTQUIST BARBOSA PROFA</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>e920484a@educacao.sp.gov.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>EDUIR BENEDICTO SCARPARI PROFESSOR</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>e920782a@educacao.sp.gov.br</t>
         </is>
       </c>
     </row>
